--- a/Многомерный анализ и прогнозирование/лаб 3/данные.xlsx
+++ b/Многомерный анализ и прогнозирование/лаб 3/данные.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Итоги" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="219">
   <si>
     <t>Алтайский край</t>
   </si>
@@ -667,13 +667,22 @@
     <t>ward_new</t>
   </si>
   <si>
-    <t>Столбец2</t>
+    <t>МГК Уорд Python</t>
   </si>
   <si>
-    <t>Столбец3</t>
+    <t>МГК K-means Python</t>
   </si>
   <si>
-    <t>f</t>
+    <t>f1P</t>
+  </si>
+  <si>
+    <t>f2P</t>
+  </si>
+  <si>
+    <t>f3P</t>
+  </si>
+  <si>
+    <t>kmeans_new</t>
   </si>
 </sst>
 </file>
@@ -906,7 +915,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -992,9 +1001,6 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1010,88 +1016,17 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Итоги" xfId="1"/>
     <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
@@ -1100,12 +1035,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1126,7 +1055,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1138,15 +1073,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -1154,24 +1080,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1197,12 +1105,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1346,25 +1248,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -1372,25 +1255,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1427,7 +1291,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1464,7 +1327,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1501,7 +1363,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1538,136 +1399,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -1675,25 +1406,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1743,7 +1455,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1762,6 +1473,386 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1799,6 +1890,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1836,6 +1928,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1873,6 +1966,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1910,6 +2004,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1947,6 +2042,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1984,6 +2080,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2021,6 +2118,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2058,6 +2156,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2095,6 +2194,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2132,6 +2232,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2169,6 +2270,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2206,81 +2308,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3362,11 +3391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1906704336"/>
-        <c:axId val="1906704880"/>
+        <c:axId val="166400256"/>
+        <c:axId val="166406784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1906704336"/>
+        <c:axId val="166400256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,7 +3438,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1906704880"/>
+        <c:crossAx val="166406784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3417,7 +3446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1906704880"/>
+        <c:axId val="166406784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3468,7 +3497,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1906704336"/>
+        <c:crossAx val="166400256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4407,11 +4436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1906705968"/>
-        <c:axId val="1665195120"/>
+        <c:axId val="2067988496"/>
+        <c:axId val="2067976528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1906705968"/>
+        <c:axId val="2067988496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,12 +4497,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1665195120"/>
+        <c:crossAx val="2067976528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1665195120"/>
+        <c:axId val="2067976528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,7 +4559,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1906705968"/>
+        <c:crossAx val="2067988496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5443,11 +5472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1964769088"/>
-        <c:axId val="1964765824"/>
+        <c:axId val="228004928"/>
+        <c:axId val="228009824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1964769088"/>
+        <c:axId val="228004928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5504,12 +5533,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964765824"/>
+        <c:crossAx val="228009824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1964765824"/>
+        <c:axId val="228009824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5566,7 +5595,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964769088"/>
+        <c:crossAx val="228004928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6478,11 +6507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1964776160"/>
-        <c:axId val="1964769632"/>
+        <c:axId val="228003296"/>
+        <c:axId val="227998400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1964776160"/>
+        <c:axId val="228003296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6539,12 +6568,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964769632"/>
+        <c:crossAx val="227998400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1964769632"/>
+        <c:axId val="227998400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6601,7 +6630,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964776160"/>
+        <c:crossAx val="228003296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7507,11 +7536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1964770176"/>
-        <c:axId val="1964776704"/>
+        <c:axId val="228003840"/>
+        <c:axId val="228004384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1964770176"/>
+        <c:axId val="228003840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7568,12 +7597,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964776704"/>
+        <c:crossAx val="228004384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1964776704"/>
+        <c:axId val="228004384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7630,7 +7659,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964770176"/>
+        <c:crossAx val="228003840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10479,6 +10508,49 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>430387</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13315950" y="0"/>
+          <a:ext cx="12622387" cy="2448267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -10497,7 +10569,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12826,66 +12898,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:CD87" totalsRowCount="1" headerRowDxfId="82" dataDxfId="81">
-  <autoFilter ref="A1:CD86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:CE87" totalsRowCount="1" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:CE86">
+    <filterColumn colId="76">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:BZ86">
     <sortCondition ref="A1:A86"/>
   </sortState>
-  <tableColumns count="82">
-    <tableColumn id="1" name="Регион" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51">
+  <tableColumns count="83">
+    <tableColumn id="1" name="Регион" dataDxfId="81" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="37"/>
+    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="36"/>
+    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="35"/>
+    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="77" totalsRowDxfId="34"/>
+    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="76" totalsRowDxfId="33"/>
+    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="75" totalsRowDxfId="32"/>
+    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="74" totalsRowDxfId="31"/>
+    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="73" totalsRowDxfId="30"/>
+    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="72" totalsRowDxfId="29"/>
+    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="71" totalsRowDxfId="28"/>
+    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="27"/>
+    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="26"/>
+    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="25"/>
+    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="24">
       <calculatedColumnFormula>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="23"/>
+    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="22">
       <totalsRowFormula>30/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="20" name="Махал1" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="21" name="Махал2" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="22" name="Махал3" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="23" name="Махал4" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="24" name="Махал5" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="64" totalsRowDxfId="21"/>
+    <tableColumn id="20" name="Махал1" dataDxfId="63" totalsRowDxfId="20"/>
+    <tableColumn id="21" name="Махал2" dataDxfId="62" totalsRowDxfId="19"/>
+    <tableColumn id="22" name="Махал3" dataDxfId="61" totalsRowDxfId="18"/>
+    <tableColumn id="23" name="Махал4" dataDxfId="60" totalsRowDxfId="17"/>
+    <tableColumn id="24" name="Махал5" dataDxfId="59" totalsRowDxfId="16"/>
+    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="58" totalsRowDxfId="15">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1]:[Махал5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Махал]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="априор" totalsRowDxfId="28"/>
-    <tableColumn id="28" name="априор1" totalsRowDxfId="27"/>
-    <tableColumn id="29" name="априор2" totalsRowDxfId="26"/>
-    <tableColumn id="30" name="априор3" totalsRowDxfId="25"/>
-    <tableColumn id="31" name="априор4" totalsRowDxfId="24"/>
-    <tableColumn id="32" name="априор5" totalsRowDxfId="23"/>
-    <tableColumn id="34" name="априор макс" dataDxfId="22">
+    <tableColumn id="33" name="априор" totalsRowDxfId="12"/>
+    <tableColumn id="28" name="априор1" totalsRowDxfId="11"/>
+    <tableColumn id="29" name="априор2" totalsRowDxfId="10"/>
+    <tableColumn id="30" name="априор3" totalsRowDxfId="9"/>
+    <tableColumn id="31" name="априор4" totalsRowDxfId="8"/>
+    <tableColumn id="32" name="априор5" totalsRowDxfId="7"/>
+    <tableColumn id="34" name="априор макс" dataDxfId="55">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[априор1]:[априор5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Априор]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="19">
+    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="53">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="18">
+    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="5">
       <totalsRowFormula>28/30</totalsRowFormula>
     </tableColumn>
     <tableColumn id="38" name="Observed МахаланобисВКЛ"/>
@@ -12894,14 +12972,14 @@
     <tableColumn id="41" name="Махал3ВКЛ"/>
     <tableColumn id="42" name="Махал4ВКЛ"/>
     <tableColumn id="43" name="Махал5ВКл"/>
-    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="17">
+    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="52">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ВКЛ]:[Махал5ВКл]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал1ВКЛ]],1,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал2ВКл]],2,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал3ВКЛ]],3,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал4ВКЛ]],4,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал5ВКл]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Махал точность ВКЛ]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="14">
+    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="50">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[МахаланобисКлассификацияВКЛ]],1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="47" name="априорВКЛ"/>
@@ -12910,17 +12988,17 @@
     <tableColumn id="50" name="АприорВКл3"/>
     <tableColumn id="51" name="АприорВКл4"/>
     <tableColumn id="52" name="АприорВКл5"/>
-    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="13">
+    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="49">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорВКл1]:[АприорВКл5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл1]],1,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл2]],2,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл3]],3,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл4]],4,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность априор вкл]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="10">
+    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="47">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВклКлассификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="9">
+    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="2">
       <totalsRowFormula>28/30</totalsRowFormula>
     </tableColumn>
     <tableColumn id="57" name="Observed МахаланобисИСК"/>
@@ -12932,7 +13010,7 @@
     <tableColumn id="63" name="Махал минимум ИСК">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ИСК]:[Махал5ИСК]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="8">
+    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал1ИСК]],1,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал2ИСК]],2,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал3ИСК]],3,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал4ИСК]],4,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал5ИСК]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[МАХАЛ ИСК точность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
@@ -12945,14 +13023,14 @@
     <tableColumn id="69" name="АприорИСК3"/>
     <tableColumn id="70" name="АприорИСК4"/>
     <tableColumn id="71" name="АприорИСК5"/>
-    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="7">
+    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="46">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорИСК1]]:Таблица2[[#This Row],[АприорИСК5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК1]]=Таблица2[[#This Row],[АприорИСК максимум]],1,IF(Таблица2[[#This Row],[АприорИСК2]]=Таблица2[[#This Row],[АприорИСК максимум]],2,IF(Таблица2[[#This Row],[АприорИСК3]]=Таблица2[[#This Row],[АприорИСК максимум]],3,IF(Таблица2[[#This Row],[АприорИСК4]]=Таблица2[[#This Row],[АприорИСК максимум]],4,IF(Таблица2[[#This Row],[АприорИСК5]]=Таблица2[[#This Row],[АприорИСК максимум]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[АприорИскТочность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="4">
+    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="44">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" name="f1"/>
@@ -12960,10 +13038,11 @@
     <tableColumn id="76" name="f3"/>
     <tableColumn id="79" name="Ward  МГК" totalsRowFunction="count"/>
     <tableColumn id="80" name="K-Means МГК"/>
-    <tableColumn id="77" name="ward_new" dataDxfId="3"/>
-    <tableColumn id="78" name="f" dataDxfId="2"/>
-    <tableColumn id="81" name="Столбец2" dataDxfId="1"/>
-    <tableColumn id="82" name="Столбец3" dataDxfId="0"/>
+    <tableColumn id="83" name="kmeans_new" dataDxfId="39" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="77" name="ward_new" dataDxfId="43"/>
+    <tableColumn id="78" name="f1P" dataDxfId="42"/>
+    <tableColumn id="81" name="f2P" dataDxfId="41"/>
+    <tableColumn id="82" name="f3P" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13256,13 +13335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD91"/>
+  <dimension ref="A1:CE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CC9" sqref="CC9"/>
+      <selection pane="bottomRight" activeCell="O87" sqref="O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13284,7 +13363,7 @@
     <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>109</v>
       </c>
@@ -13519,20 +13598,23 @@
       <c r="BZ1" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="CA1" s="40" t="s">
+      <c r="CA1" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="CB1" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="CB1" s="35" t="s">
+      <c r="CC1" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="CC1" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="CD1" s="35" t="s">
-        <v>214</v>
+      <c r="CD1" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="CE1" s="39" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -13577,7 +13659,7 @@
       </c>
       <c r="O2" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.393886853659148</v>
+        <v>6.1611701857646404</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
@@ -13784,14 +13866,23 @@
       <c r="BZ2" s="18">
         <v>3</v>
       </c>
-      <c r="CA2" s="34">
+      <c r="CA2">
+        <v>4</v>
+      </c>
+      <c r="CB2" s="34">
         <v>3</v>
       </c>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
+      <c r="CC2">
+        <v>4.158959767909926E-3</v>
+      </c>
+      <c r="CD2">
+        <v>-1.097482704918713</v>
+      </c>
+      <c r="CE2">
+        <v>1.1719565945102419</v>
+      </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -13836,7 +13927,7 @@
       </c>
       <c r="O3" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>9.9102538892762109</v>
+        <v>13.320558171727981</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15" t="s">
@@ -14043,14 +14134,23 @@
       <c r="BZ3" s="18">
         <v>3</v>
       </c>
-      <c r="CA3" s="34">
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="34">
         <v>3</v>
       </c>
-      <c r="CB3" s="34"/>
-      <c r="CC3" s="34"/>
-      <c r="CD3" s="34"/>
+      <c r="CC3">
+        <v>-1.411405872202111</v>
+      </c>
+      <c r="CD3">
+        <v>-1.2493204788950361</v>
+      </c>
+      <c r="CE3">
+        <v>-0.25490962704882753</v>
+      </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -14095,7 +14195,7 @@
       </c>
       <c r="O4" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.6904455959238796</v>
+        <v>8.1716249947900472</v>
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15" t="s">
@@ -14302,14 +14402,23 @@
       <c r="BZ4" s="18">
         <v>3</v>
       </c>
-      <c r="CA4" s="34">
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="34">
         <v>3</v>
       </c>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
+      <c r="CC4">
+        <v>-0.85524542739701226</v>
+      </c>
+      <c r="CD4">
+        <v>0.1647542456204496</v>
+      </c>
+      <c r="CE4">
+        <v>-6.2972192600724786E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -14354,7 +14463,7 @@
       </c>
       <c r="O5" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.2045060475669156</v>
+        <v>0.64675626847063505</v>
       </c>
       <c r="P5" s="15">
         <v>1</v>
@@ -14563,14 +14672,23 @@
       <c r="BZ5" s="18">
         <v>2</v>
       </c>
-      <c r="CA5" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
+      <c r="CA5">
+        <v>3</v>
+      </c>
+      <c r="CB5" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>0.74429734342106135</v>
+      </c>
+      <c r="CD5">
+        <v>-0.1319208670953077</v>
+      </c>
+      <c r="CE5">
+        <v>-0.1705309797823929</v>
+      </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -14615,7 +14733,7 @@
       </c>
       <c r="O6" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.5658216998164649</v>
+        <v>6.3705747934499248</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15" t="s">
@@ -14822,14 +14940,23 @@
       <c r="BZ6" s="18">
         <v>2</v>
       </c>
-      <c r="CA6" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB6" s="34"/>
-      <c r="CC6" s="34"/>
-      <c r="CD6" s="34"/>
+      <c r="CA6">
+        <v>3</v>
+      </c>
+      <c r="CB6" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>0.55135941074420869</v>
+      </c>
+      <c r="CD6">
+        <v>6.5124851540343504E-2</v>
+      </c>
+      <c r="CE6">
+        <v>-1.304654056210881</v>
+      </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -14874,7 +15001,7 @@
       </c>
       <c r="O7" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.7380958792916532</v>
+        <v>6.7184514820702432</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15" t="s">
@@ -15081,14 +15208,23 @@
       <c r="BZ7" s="18">
         <v>5</v>
       </c>
-      <c r="CA7" s="34">
+      <c r="CA7">
+        <v>4</v>
+      </c>
+      <c r="CB7" s="34">
         <v>2</v>
       </c>
-      <c r="CB7" s="34"/>
-      <c r="CC7" s="34"/>
-      <c r="CD7" s="34"/>
+      <c r="CC7">
+        <v>0.17584662118315841</v>
+      </c>
+      <c r="CD7">
+        <v>0.25370415558575399</v>
+      </c>
+      <c r="CE7">
+        <v>1.512427343244912</v>
+      </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -15133,7 +15269,7 @@
       </c>
       <c r="O8" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.1448713876240886</v>
+        <v>5.9436382584034906</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15" t="s">
@@ -15340,14 +15476,23 @@
       <c r="BZ8" s="18">
         <v>3</v>
       </c>
-      <c r="CA8" s="34">
+      <c r="CA8">
+        <v>4</v>
+      </c>
+      <c r="CB8" s="34">
         <v>3</v>
       </c>
-      <c r="CB8" s="34"/>
-      <c r="CC8" s="34"/>
-      <c r="CD8" s="34"/>
+      <c r="CC8">
+        <v>-0.36130918959914282</v>
+      </c>
+      <c r="CD8">
+        <v>-1.0502625969416279</v>
+      </c>
+      <c r="CE8">
+        <v>0.92817035537099168</v>
+      </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -15392,7 +15537,7 @@
       </c>
       <c r="O9" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.7703757037394579</v>
+        <v>0.73347349837462061</v>
       </c>
       <c r="P9" s="15">
         <v>1</v>
@@ -15601,14 +15746,23 @@
       <c r="BZ9" s="18">
         <v>2</v>
       </c>
-      <c r="CA9" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="34"/>
+      <c r="CA9">
+        <v>3</v>
+      </c>
+      <c r="CB9" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <v>0.66407784369232459</v>
+      </c>
+      <c r="CD9">
+        <v>-8.7311588614241695E-2</v>
+      </c>
+      <c r="CE9">
+        <v>7.6054853329541483E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -15653,7 +15807,7 @@
       </c>
       <c r="O10" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.1559908948085287</v>
+        <v>5.6913067610423811</v>
       </c>
       <c r="P10" s="15">
         <v>5</v>
@@ -15862,14 +16016,23 @@
       <c r="BZ10" s="18">
         <v>3</v>
       </c>
-      <c r="CA10" s="34">
+      <c r="CA10">
+        <v>4</v>
+      </c>
+      <c r="CB10" s="34">
         <v>3</v>
       </c>
-      <c r="CB10" s="34"/>
-      <c r="CC10" s="34"/>
-      <c r="CD10" s="34"/>
+      <c r="CC10">
+        <v>-0.47236462069975521</v>
+      </c>
+      <c r="CD10">
+        <v>-0.34052876245203012</v>
+      </c>
+      <c r="CE10">
+        <v>0.99568697043139709</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -15914,7 +16077,7 @@
       </c>
       <c r="O11" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.7879010546763592</v>
+        <v>3.5191125662347034</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15" t="s">
@@ -16121,14 +16284,23 @@
       <c r="BZ11" s="18">
         <v>2</v>
       </c>
-      <c r="CA11" s="34">
+      <c r="CA11">
+        <v>3</v>
+      </c>
+      <c r="CB11" s="34">
         <v>5</v>
       </c>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="34"/>
-      <c r="CD11" s="34"/>
+      <c r="CC11">
+        <v>0.54605165178214576</v>
+      </c>
+      <c r="CD11">
+        <v>-0.53505443346627912</v>
+      </c>
+      <c r="CE11">
+        <v>-0.73155780841916329</v>
+      </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -16173,7 +16345,7 @@
       </c>
       <c r="O12" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>32.064351678043934</v>
+        <v>31.775886726121023</v>
       </c>
       <c r="P12" s="15"/>
       <c r="Q12" s="15" t="s">
@@ -16380,14 +16552,23 @@
       <c r="BZ12" s="18">
         <v>4</v>
       </c>
-      <c r="CA12" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB12" s="34"/>
-      <c r="CC12" s="34"/>
-      <c r="CD12" s="34"/>
+      <c r="CA12">
+        <v>5</v>
+      </c>
+      <c r="CB12" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC12">
+        <v>1.081017428660336</v>
+      </c>
+      <c r="CD12">
+        <v>2.4156021816447422</v>
+      </c>
+      <c r="CE12">
+        <v>-1.794022875920573</v>
+      </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -16432,7 +16613,7 @@
       </c>
       <c r="O13" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>12.609448778618402</v>
+        <v>15.193670825283823</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="15" t="s">
@@ -16639,14 +16820,23 @@
       <c r="BZ13" s="18">
         <v>3</v>
       </c>
-      <c r="CA13" s="34">
+      <c r="CA13">
+        <v>4</v>
+      </c>
+      <c r="CB13" s="34">
         <v>3</v>
       </c>
-      <c r="CB13" s="34"/>
-      <c r="CC13" s="34"/>
-      <c r="CD13" s="34"/>
+      <c r="CC13">
+        <v>-1.0919942652583441</v>
+      </c>
+      <c r="CD13">
+        <v>-0.93960786829748533</v>
+      </c>
+      <c r="CE13">
+        <v>1.974596212467703</v>
+      </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -16691,7 +16881,7 @@
       </c>
       <c r="O14" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>8.6183786206490058</v>
+        <v>11.127519942511006</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15" t="s">
@@ -16898,14 +17088,23 @@
       <c r="BZ14" s="18">
         <v>3</v>
       </c>
-      <c r="CA14" s="34">
+      <c r="CA14">
+        <v>4</v>
+      </c>
+      <c r="CB14" s="34">
         <v>2</v>
       </c>
-      <c r="CB14" s="34"/>
-      <c r="CC14" s="34"/>
-      <c r="CD14" s="34"/>
+      <c r="CC14">
+        <v>-0.86461044399130282</v>
+      </c>
+      <c r="CD14">
+        <v>1.0892055612455419E-2</v>
+      </c>
+      <c r="CE14">
+        <v>1.2059772998189291</v>
+      </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -16950,7 +17149,7 @@
       </c>
       <c r="O15" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>0.69999916866320588</v>
+        <v>1.0563160827352487</v>
       </c>
       <c r="P15" s="15">
         <v>1</v>
@@ -17159,14 +17358,23 @@
       <c r="BZ15" s="18">
         <v>2</v>
       </c>
-      <c r="CA15" s="34">
+      <c r="CA15">
+        <v>1</v>
+      </c>
+      <c r="CB15" s="34">
         <v>3</v>
       </c>
-      <c r="CB15" s="34"/>
-      <c r="CC15" s="34"/>
-      <c r="CD15" s="34"/>
+      <c r="CC15">
+        <v>-7.1279486616828234E-3</v>
+      </c>
+      <c r="CD15">
+        <v>-0.46889219390184289</v>
+      </c>
+      <c r="CE15">
+        <v>3.003767606492613E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -17211,7 +17419,7 @@
       </c>
       <c r="O16" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.8088081469136594</v>
+        <v>3.2112944870984599</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="15" t="s">
@@ -17418,14 +17626,23 @@
       <c r="BZ16" s="18">
         <v>3</v>
       </c>
-      <c r="CA16" s="34">
+      <c r="CA16">
+        <v>4</v>
+      </c>
+      <c r="CB16" s="34">
         <v>3</v>
       </c>
-      <c r="CB16" s="34"/>
-      <c r="CC16" s="34"/>
-      <c r="CD16" s="34"/>
+      <c r="CC16">
+        <v>-7.5027488633856901E-2</v>
+      </c>
+      <c r="CD16">
+        <v>-0.64135416683531632</v>
+      </c>
+      <c r="CE16">
+        <v>0.64052298504462901</v>
+      </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -17470,7 +17687,7 @@
       </c>
       <c r="O17" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>12.413932537795384</v>
+        <v>9.6484558824513762</v>
       </c>
       <c r="P17" s="15">
         <v>4</v>
@@ -17679,14 +17896,23 @@
       <c r="BZ17" s="18">
         <v>4</v>
       </c>
-      <c r="CA17" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB17" s="34"/>
-      <c r="CC17" s="34"/>
-      <c r="CD17" s="34"/>
+      <c r="CA17">
+        <v>5</v>
+      </c>
+      <c r="CB17" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC17">
+        <v>1.645098075330216</v>
+      </c>
+      <c r="CD17">
+        <v>0.74974708361428066</v>
+      </c>
+      <c r="CE17">
+        <v>0.4035248784717691</v>
+      </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -17731,7 +17957,7 @@
       </c>
       <c r="O18" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.2165720346286006</v>
+        <v>3.5037006956517462</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="15" t="s">
@@ -17938,14 +18164,23 @@
       <c r="BZ18" s="18">
         <v>5</v>
       </c>
-      <c r="CA18" s="34">
+      <c r="CA18">
+        <v>4</v>
+      </c>
+      <c r="CB18" s="34">
         <v>2</v>
       </c>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="34"/>
-      <c r="CD18" s="34"/>
+      <c r="CC18">
+        <v>0.63199967230217335</v>
+      </c>
+      <c r="CD18">
+        <v>0.43621763973295258</v>
+      </c>
+      <c r="CE18">
+        <v>1.094281657101783</v>
+      </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -17990,7 +18225,7 @@
       </c>
       <c r="O19" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.1571064200729735</v>
+        <v>5.3365788745293052</v>
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="15" t="s">
@@ -18197,14 +18432,23 @@
       <c r="BZ19" s="18">
         <v>5</v>
       </c>
-      <c r="CA19" s="34">
+      <c r="CA19">
+        <v>4</v>
+      </c>
+      <c r="CB19" s="34">
         <v>2</v>
       </c>
-      <c r="CB19" s="34"/>
-      <c r="CC19" s="34"/>
-      <c r="CD19" s="34"/>
+      <c r="CC19">
+        <v>0.25584108322038018</v>
+      </c>
+      <c r="CD19">
+        <v>0.23673242345801579</v>
+      </c>
+      <c r="CE19">
+        <v>1.133240293150755</v>
+      </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -18249,7 +18493,7 @@
       </c>
       <c r="O20" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>12.800402445326565</v>
+        <v>18.464298600731475</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="15" t="s">
@@ -18456,14 +18700,23 @@
       <c r="BZ20" s="18">
         <v>1</v>
       </c>
-      <c r="CA20" s="34">
+      <c r="CA20">
+        <v>1</v>
+      </c>
+      <c r="CB20" s="34">
         <v>4</v>
       </c>
-      <c r="CB20" s="34"/>
-      <c r="CC20" s="34"/>
-      <c r="CD20" s="34"/>
+      <c r="CC20">
+        <v>-1.6668915435031859</v>
+      </c>
+      <c r="CD20">
+        <v>0.72172255099168603</v>
+      </c>
+      <c r="CE20">
+        <v>-0.96205551519315058</v>
+      </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -18508,7 +18761,7 @@
       </c>
       <c r="O21" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>9.6872021226572436</v>
+        <v>6.4911939037457724</v>
       </c>
       <c r="P21" s="15">
         <v>4</v>
@@ -18717,14 +18970,23 @@
       <c r="BZ21" s="18">
         <v>4</v>
       </c>
-      <c r="CA21" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB21" s="34"/>
-      <c r="CC21" s="34"/>
-      <c r="CD21" s="34"/>
+      <c r="CA21">
+        <v>3</v>
+      </c>
+      <c r="CB21" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC21">
+        <v>1.4474040008946281</v>
+      </c>
+      <c r="CD21">
+        <v>0.1743046675989974</v>
+      </c>
+      <c r="CE21">
+        <v>-0.56426744844041266</v>
+      </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -18769,7 +19031,7 @@
       </c>
       <c r="O22" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.0636332457298527</v>
+        <v>4.9470090825999486</v>
       </c>
       <c r="P22" s="15">
         <v>3</v>
@@ -18978,14 +19240,23 @@
       <c r="BZ22" s="18">
         <v>3</v>
       </c>
-      <c r="CA22" s="34">
+      <c r="CA22">
+        <v>1</v>
+      </c>
+      <c r="CB22" s="34">
         <v>3</v>
       </c>
-      <c r="CB22" s="34"/>
-      <c r="CC22" s="34"/>
-      <c r="CD22" s="34"/>
+      <c r="CC22">
+        <v>-0.51120556838711473</v>
+      </c>
+      <c r="CD22">
+        <v>-0.62823483522325718</v>
+      </c>
+      <c r="CE22">
+        <v>-3.3058912389420013E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -19030,7 +19301,7 @@
       </c>
       <c r="O23" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.8042268031625897</v>
+        <v>4.21570293786775</v>
       </c>
       <c r="P23" s="15">
         <v>5</v>
@@ -19239,14 +19510,23 @@
       <c r="BZ23" s="18">
         <v>3</v>
       </c>
-      <c r="CA23" s="34">
+      <c r="CA23">
+        <v>1</v>
+      </c>
+      <c r="CB23" s="34">
         <v>3</v>
       </c>
-      <c r="CB23" s="34"/>
-      <c r="CC23" s="34"/>
-      <c r="CD23" s="34"/>
+      <c r="CC23">
+        <v>-0.29303341583869602</v>
+      </c>
+      <c r="CD23">
+        <v>-0.77836499838971684</v>
+      </c>
+      <c r="CE23">
+        <v>0.15289972513935571</v>
+      </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -19291,7 +19571,7 @@
       </c>
       <c r="O24" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.5048975545449186</v>
+        <v>3.5116831342861978</v>
       </c>
       <c r="P24" s="15">
         <v>5</v>
@@ -19500,14 +19780,23 @@
       <c r="BZ24" s="18">
         <v>2</v>
       </c>
-      <c r="CA24" s="34">
+      <c r="CA24">
+        <v>1</v>
+      </c>
+      <c r="CB24" s="34">
         <v>3</v>
       </c>
-      <c r="CB24" s="34"/>
-      <c r="CC24" s="34"/>
-      <c r="CD24" s="34"/>
+      <c r="CC24">
+        <v>-0.33345235357644498</v>
+      </c>
+      <c r="CD24">
+        <v>-0.68823478122990644</v>
+      </c>
+      <c r="CE24">
+        <v>-4.4906081187513103E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -19552,7 +19841,7 @@
       </c>
       <c r="O25" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.9034443673773915</v>
+        <v>2.7718338629789305</v>
       </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15" t="s">
@@ -19759,14 +20048,23 @@
       <c r="BZ25" s="18">
         <v>4</v>
       </c>
-      <c r="CA25" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB25" s="34"/>
-      <c r="CC25" s="34"/>
-      <c r="CD25" s="34"/>
+      <c r="CA25">
+        <v>3</v>
+      </c>
+      <c r="CB25" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC25">
+        <v>0.55598953439067955</v>
+      </c>
+      <c r="CD25">
+        <v>0.36992685752735338</v>
+      </c>
+      <c r="CE25">
+        <v>0.1519485562046535</v>
+      </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -19811,7 +20109,7 @@
       </c>
       <c r="O26" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>0.78785227245208</v>
+        <v>1.0574940872723593</v>
       </c>
       <c r="P26" s="15">
         <v>1</v>
@@ -20020,14 +20318,23 @@
       <c r="BZ26" s="18">
         <v>3</v>
       </c>
-      <c r="CA26" s="34">
+      <c r="CA26">
+        <v>4</v>
+      </c>
+      <c r="CB26" s="34">
         <v>3</v>
       </c>
-      <c r="CB26" s="34"/>
-      <c r="CC26" s="34"/>
-      <c r="CD26" s="34"/>
+      <c r="CC26">
+        <v>0.15373975901280851</v>
+      </c>
+      <c r="CD26">
+        <v>-0.1224883195016486</v>
+      </c>
+      <c r="CE26">
+        <v>0.63020048729591793</v>
+      </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -20072,7 +20379,7 @@
       </c>
       <c r="O27" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>8.2523299787466176</v>
+        <v>9.6301093882598536</v>
       </c>
       <c r="P27" s="15">
         <v>3</v>
@@ -20281,14 +20588,23 @@
       <c r="BZ27" s="18">
         <v>2</v>
       </c>
-      <c r="CA27" s="34">
+      <c r="CA27">
+        <v>1</v>
+      </c>
+      <c r="CB27" s="34">
         <v>5</v>
       </c>
-      <c r="CB27" s="34"/>
-      <c r="CC27" s="34"/>
-      <c r="CD27" s="34"/>
+      <c r="CC27">
+        <v>-0.48486101125148762</v>
+      </c>
+      <c r="CD27">
+        <v>-1.1674328690061639</v>
+      </c>
+      <c r="CE27">
+        <v>-1.148229249366427</v>
+      </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -20333,7 +20649,7 @@
       </c>
       <c r="O28" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.406241559376638</v>
+        <v>2.7365671679793215</v>
       </c>
       <c r="P28" s="15"/>
       <c r="Q28" s="15" t="s">
@@ -20540,14 +20856,23 @@
       <c r="BZ28" s="18">
         <v>2</v>
       </c>
-      <c r="CA28" s="34">
+      <c r="CA28">
+        <v>3</v>
+      </c>
+      <c r="CB28" s="34">
         <v>5</v>
       </c>
-      <c r="CB28" s="34"/>
-      <c r="CC28" s="34"/>
-      <c r="CD28" s="34"/>
+      <c r="CC28">
+        <v>0.37178713258116619</v>
+      </c>
+      <c r="CD28">
+        <v>-0.47906210128175603</v>
+      </c>
+      <c r="CE28">
+        <v>-1.1829842318738699</v>
+      </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -20592,7 +20917,7 @@
       </c>
       <c r="O29" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.7372535080252494</v>
+        <v>8.9753123139514965</v>
       </c>
       <c r="P29" s="15"/>
       <c r="Q29" s="15" t="s">
@@ -20799,14 +21124,23 @@
       <c r="BZ29" s="18">
         <v>2</v>
       </c>
-      <c r="CA29" s="34">
+      <c r="CA29">
+        <v>1</v>
+      </c>
+      <c r="CB29" s="34">
         <v>3</v>
       </c>
-      <c r="CB29" s="34"/>
-      <c r="CC29" s="34"/>
-      <c r="CD29" s="34"/>
+      <c r="CC29">
+        <v>-0.2764782022669241</v>
+      </c>
+      <c r="CD29">
+        <v>0.26612729566572901</v>
+      </c>
+      <c r="CE29">
+        <v>4.4117898871793668E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -20851,7 +21185,7 @@
       </c>
       <c r="O30" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.105143675171409</v>
+        <v>4.1251992920892864</v>
       </c>
       <c r="P30" s="15">
         <v>3</v>
@@ -21060,14 +21394,23 @@
       <c r="BZ30" s="18">
         <v>2</v>
       </c>
-      <c r="CA30" s="34">
+      <c r="CA30">
+        <v>1</v>
+      </c>
+      <c r="CB30" s="34">
         <v>3</v>
       </c>
-      <c r="CB30" s="34"/>
-      <c r="CC30" s="34"/>
-      <c r="CD30" s="34"/>
+      <c r="CC30">
+        <v>-4.8631875875612251E-3</v>
+      </c>
+      <c r="CD30">
+        <v>-0.38739049295689409</v>
+      </c>
+      <c r="CE30">
+        <v>-0.1740771175670828</v>
+      </c>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -21112,7 +21455,7 @@
       </c>
       <c r="O31" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>19.642262967293028</v>
+        <v>26.925413053033292</v>
       </c>
       <c r="P31" s="15"/>
       <c r="Q31" s="15" t="s">
@@ -21319,14 +21662,23 @@
       <c r="BZ31" s="18">
         <v>1</v>
       </c>
-      <c r="CA31" s="34">
+      <c r="CA31">
+        <v>2</v>
+      </c>
+      <c r="CB31" s="34">
         <v>4</v>
       </c>
-      <c r="CB31" s="34"/>
-      <c r="CC31" s="34"/>
-      <c r="CD31" s="34"/>
+      <c r="CC31">
+        <v>-2.142723604788904</v>
+      </c>
+      <c r="CD31">
+        <v>0.86357728925628185</v>
+      </c>
+      <c r="CE31">
+        <v>-0.98212888469860993</v>
+      </c>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -21371,7 +21723,7 @@
       </c>
       <c r="O32" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>12.429901899851826</v>
+        <v>14.566157663842437</v>
       </c>
       <c r="P32" s="15"/>
       <c r="Q32" s="15" t="s">
@@ -21578,14 +21930,23 @@
       <c r="BZ32" s="18">
         <v>5</v>
       </c>
-      <c r="CA32" s="34">
+      <c r="CA32">
+        <v>5</v>
+      </c>
+      <c r="CB32" s="34">
         <v>2</v>
       </c>
-      <c r="CB32" s="34"/>
-      <c r="CC32" s="34"/>
-      <c r="CD32" s="34"/>
+      <c r="CC32">
+        <v>0.2955438210131327</v>
+      </c>
+      <c r="CD32">
+        <v>1.8633358878662469</v>
+      </c>
+      <c r="CE32">
+        <v>1.361330041202037</v>
+      </c>
     </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -21630,7 +21991,7 @@
       </c>
       <c r="O33" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.5879216036588755</v>
+        <v>9.9842573325925876</v>
       </c>
       <c r="P33" s="15"/>
       <c r="Q33" s="15" t="s">
@@ -21837,14 +22198,23 @@
       <c r="BZ33" s="18">
         <v>5</v>
       </c>
-      <c r="CA33" s="34">
+      <c r="CA33">
+        <v>4</v>
+      </c>
+      <c r="CB33" s="34">
         <v>2</v>
       </c>
-      <c r="CB33" s="34"/>
-      <c r="CC33" s="34"/>
-      <c r="CD33" s="34"/>
+      <c r="CC33">
+        <v>-0.73566704036751074</v>
+      </c>
+      <c r="CD33">
+        <v>0.58751580699935446</v>
+      </c>
+      <c r="CE33">
+        <v>1.3304531457840481</v>
+      </c>
     </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -21889,7 +22259,7 @@
       </c>
       <c r="O34" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>54.22540305123362</v>
+        <v>66.16397683982558</v>
       </c>
       <c r="P34" s="15">
         <v>2</v>
@@ -22098,14 +22468,23 @@
       <c r="BZ34" s="18">
         <v>1</v>
       </c>
-      <c r="CA34" s="34">
+      <c r="CA34">
+        <v>2</v>
+      </c>
+      <c r="CB34" s="34">
         <v>4</v>
       </c>
-      <c r="CB34" s="34"/>
-      <c r="CC34" s="34"/>
-      <c r="CD34" s="34"/>
+      <c r="CC34">
+        <v>-3.122959817652843</v>
+      </c>
+      <c r="CD34">
+        <v>2.827386257704525</v>
+      </c>
+      <c r="CE34">
+        <v>-1.108778688250436</v>
+      </c>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -22150,7 +22529,7 @@
       </c>
       <c r="O35" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.493128371764985</v>
+        <v>3.2630378038280914</v>
       </c>
       <c r="P35" s="15"/>
       <c r="Q35" s="15" t="s">
@@ -22357,14 +22736,23 @@
       <c r="BZ35" s="18">
         <v>2</v>
       </c>
-      <c r="CA35" s="34">
+      <c r="CA35">
+        <v>1</v>
+      </c>
+      <c r="CB35" s="34">
         <v>3</v>
       </c>
-      <c r="CB35" s="34"/>
-      <c r="CC35" s="34"/>
-      <c r="CD35" s="34"/>
+      <c r="CC35">
+        <v>3.3527132911432472E-2</v>
+      </c>
+      <c r="CD35">
+        <v>-0.6963625920040506</v>
+      </c>
+      <c r="CE35">
+        <v>0.15959902853120819</v>
+      </c>
     </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -22409,7 +22797,7 @@
       </c>
       <c r="O36" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.5248194181120622</v>
+        <v>7.6826703345869856</v>
       </c>
       <c r="P36" s="15"/>
       <c r="Q36" s="15" t="s">
@@ -22616,14 +23004,23 @@
       <c r="BZ36" s="18">
         <v>2</v>
       </c>
-      <c r="CA36" s="34">
+      <c r="CA36">
+        <v>1</v>
+      </c>
+      <c r="CB36" s="34">
         <v>5</v>
       </c>
-      <c r="CB36" s="34"/>
-      <c r="CC36" s="34"/>
-      <c r="CD36" s="34"/>
+      <c r="CC36">
+        <v>-0.73128874358537577</v>
+      </c>
+      <c r="CD36">
+        <v>-1.042124095541253</v>
+      </c>
+      <c r="CE36">
+        <v>-0.69438479329010727</v>
+      </c>
     </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -22668,7 +23065,7 @@
       </c>
       <c r="O37" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.3865040786689367</v>
+        <v>2.257227996221832</v>
       </c>
       <c r="P37" s="15">
         <v>1</v>
@@ -22877,14 +23274,23 @@
       <c r="BZ37" s="18">
         <v>4</v>
       </c>
-      <c r="CA37" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB37" s="34"/>
-      <c r="CC37" s="34"/>
-      <c r="CD37" s="34"/>
+      <c r="CA37">
+        <v>3</v>
+      </c>
+      <c r="CB37" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC37">
+        <v>0.76201921518654148</v>
+      </c>
+      <c r="CD37">
+        <v>0.2450886960077891</v>
+      </c>
+      <c r="CE37">
+        <v>0.24970182134403021</v>
+      </c>
     </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -22929,7 +23335,7 @@
       </c>
       <c r="O38" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.6535195137126326</v>
+        <v>3.2323844535614938</v>
       </c>
       <c r="P38" s="15"/>
       <c r="Q38" s="15" t="s">
@@ -23136,14 +23542,23 @@
       <c r="BZ38" s="18">
         <v>2</v>
       </c>
-      <c r="CA38" s="34">
+      <c r="CA38">
+        <v>3</v>
+      </c>
+      <c r="CB38" s="34">
         <v>5</v>
       </c>
-      <c r="CB38" s="34"/>
-      <c r="CC38" s="34"/>
-      <c r="CD38" s="34"/>
+      <c r="CC38">
+        <v>0.53342286338393974</v>
+      </c>
+      <c r="CD38">
+        <v>-0.59167600620019301</v>
+      </c>
+      <c r="CE38">
+        <v>-1.4151498414550541</v>
+      </c>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -23188,7 +23603,7 @@
       </c>
       <c r="O39" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.3276187939336062</v>
+        <v>2.584959773846383</v>
       </c>
       <c r="P39" s="15"/>
       <c r="Q39" s="15" t="s">
@@ -23395,14 +23810,23 @@
       <c r="BZ39" s="18">
         <v>3</v>
       </c>
-      <c r="CA39" s="34">
+      <c r="CA39">
+        <v>4</v>
+      </c>
+      <c r="CB39" s="34">
         <v>3</v>
       </c>
-      <c r="CB39" s="34"/>
-      <c r="CC39" s="34"/>
-      <c r="CD39" s="34"/>
+      <c r="CC39">
+        <v>0.20686645610416729</v>
+      </c>
+      <c r="CD39">
+        <v>-0.2152491273954297</v>
+      </c>
+      <c r="CE39">
+        <v>0.61149769940070664</v>
+      </c>
     </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -23447,7 +23871,7 @@
       </c>
       <c r="O40" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.5505826921321959</v>
+        <v>1.4518467977082614</v>
       </c>
       <c r="P40" s="15">
         <v>1</v>
@@ -23656,14 +24080,23 @@
       <c r="BZ40" s="18">
         <v>2</v>
       </c>
-      <c r="CA40" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB40" s="34"/>
-      <c r="CC40" s="34"/>
-      <c r="CD40" s="34"/>
+      <c r="CA40">
+        <v>3</v>
+      </c>
+      <c r="CB40" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC40">
+        <v>0.59442235552021172</v>
+      </c>
+      <c r="CD40">
+        <v>-0.2434023867239288</v>
+      </c>
+      <c r="CE40">
+        <v>-0.27004192706626051</v>
+      </c>
     </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -23708,7 +24141,7 @@
       </c>
       <c r="O41" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.8420069727185551</v>
+        <v>7.7911520652483901</v>
       </c>
       <c r="P41" s="15">
         <v>3</v>
@@ -23917,14 +24350,23 @@
       <c r="BZ41" s="18">
         <v>2</v>
       </c>
-      <c r="CA41" s="34">
+      <c r="CA41">
+        <v>1</v>
+      </c>
+      <c r="CB41" s="34">
         <v>5</v>
       </c>
-      <c r="CB41" s="34"/>
-      <c r="CC41" s="34"/>
-      <c r="CD41" s="34"/>
+      <c r="CC41">
+        <v>-0.36131840833023238</v>
+      </c>
+      <c r="CD41">
+        <v>-1.396239827576923</v>
+      </c>
+      <c r="CE41">
+        <v>-0.98929951661613047</v>
+      </c>
     </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -23969,7 +24411,7 @@
       </c>
       <c r="O42" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.4409058754714197</v>
+        <v>3.6916495848697268</v>
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15" t="s">
@@ -24176,14 +24618,23 @@
       <c r="BZ42" s="18">
         <v>5</v>
       </c>
-      <c r="CA42" s="34">
+      <c r="CA42">
+        <v>4</v>
+      </c>
+      <c r="CB42" s="34">
         <v>3</v>
       </c>
-      <c r="CB42" s="34"/>
-      <c r="CC42" s="34"/>
-      <c r="CD42" s="34"/>
+      <c r="CC42">
+        <v>-0.1002677100621492</v>
+      </c>
+      <c r="CD42">
+        <v>-5.2115212198465136E-3</v>
+      </c>
+      <c r="CE42">
+        <v>1.083770166246224</v>
+      </c>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -24228,7 +24679,7 @@
       </c>
       <c r="O43" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.3739998720413951</v>
+        <v>3.5317144379554737</v>
       </c>
       <c r="P43" s="15">
         <v>5</v>
@@ -24437,14 +24888,23 @@
       <c r="BZ43" s="18">
         <v>2</v>
       </c>
-      <c r="CA43" s="34">
+      <c r="CA43">
+        <v>1</v>
+      </c>
+      <c r="CB43" s="34">
         <v>3</v>
       </c>
-      <c r="CB43" s="34"/>
-      <c r="CC43" s="34"/>
-      <c r="CD43" s="34"/>
+      <c r="CC43">
+        <v>-0.33163290321274141</v>
+      </c>
+      <c r="CD43">
+        <v>-0.44097093112613539</v>
+      </c>
+      <c r="CE43">
+        <v>-7.801504988503666E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -24489,7 +24949,7 @@
       </c>
       <c r="O44" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.0515070846700634</v>
+        <v>4.4599071528098753</v>
       </c>
       <c r="P44" s="15">
         <v>5</v>
@@ -24698,14 +25158,23 @@
       <c r="BZ44" s="18">
         <v>3</v>
       </c>
-      <c r="CA44" s="34">
+      <c r="CA44">
+        <v>4</v>
+      </c>
+      <c r="CB44" s="34">
         <v>3</v>
       </c>
-      <c r="CB44" s="34"/>
-      <c r="CC44" s="34"/>
-      <c r="CD44" s="34"/>
+      <c r="CC44">
+        <v>-0.39346997976966808</v>
+      </c>
+      <c r="CD44">
+        <v>-0.70552634107496914</v>
+      </c>
+      <c r="CE44">
+        <v>0.58789164777271197</v>
+      </c>
     </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -24750,7 +25219,7 @@
       </c>
       <c r="O45" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.5518737498873696</v>
+        <v>3.1856403205014625</v>
       </c>
       <c r="P45" s="15">
         <v>4</v>
@@ -24959,14 +25428,23 @@
       <c r="BZ45" s="18">
         <v>4</v>
       </c>
-      <c r="CA45" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB45" s="34"/>
-      <c r="CC45" s="34"/>
-      <c r="CD45" s="34"/>
+      <c r="CA45">
+        <v>3</v>
+      </c>
+      <c r="CB45" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC45">
+        <v>0.94906750608610035</v>
+      </c>
+      <c r="CD45">
+        <v>0.2126732699143811</v>
+      </c>
+      <c r="CE45">
+        <v>-1.1200762339034001</v>
+      </c>
     </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -25011,7 +25489,7 @@
       </c>
       <c r="O46" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>19.923995768626028</v>
+        <v>21.34402104063841</v>
       </c>
       <c r="P46" s="15"/>
       <c r="Q46" s="15" t="s">
@@ -25218,14 +25696,23 @@
       <c r="BZ46" s="18">
         <v>3</v>
       </c>
-      <c r="CA46" s="34">
+      <c r="CA46">
+        <v>4</v>
+      </c>
+      <c r="CB46" s="34">
         <v>3</v>
       </c>
-      <c r="CB46" s="34"/>
-      <c r="CC46" s="34"/>
-      <c r="CD46" s="34"/>
+      <c r="CC46">
+        <v>-1.132199962911008</v>
+      </c>
+      <c r="CD46">
+        <v>-1.6743650351696819</v>
+      </c>
+      <c r="CE46">
+        <v>1.2981365817767241</v>
+      </c>
     </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -25270,7 +25757,7 @@
       </c>
       <c r="O47" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.545536761032325</v>
+        <v>5.0593036903497044</v>
       </c>
       <c r="P47" s="15">
         <v>3</v>
@@ -25479,14 +25966,23 @@
       <c r="BZ47" s="18">
         <v>2</v>
       </c>
-      <c r="CA47" s="34">
+      <c r="CA47">
+        <v>1</v>
+      </c>
+      <c r="CB47" s="34">
         <v>5</v>
       </c>
-      <c r="CB47" s="34"/>
-      <c r="CC47" s="34"/>
-      <c r="CD47" s="34"/>
+      <c r="CC47">
+        <v>-0.24873459314606999</v>
+      </c>
+      <c r="CD47">
+        <v>-0.56138891841445593</v>
+      </c>
+      <c r="CE47">
+        <v>-0.8410624641077753</v>
+      </c>
     </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -25531,7 +26027,7 @@
       </c>
       <c r="O48" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.6029940358170953</v>
+        <v>3.9531297575386346</v>
       </c>
       <c r="P48" s="15"/>
       <c r="Q48" s="15" t="s">
@@ -25738,14 +26234,23 @@
       <c r="BZ48" s="18">
         <v>2</v>
       </c>
-      <c r="CA48" s="34">
+      <c r="CA48">
+        <v>1</v>
+      </c>
+      <c r="CB48" s="34">
         <v>3</v>
       </c>
-      <c r="CB48" s="34"/>
-      <c r="CC48" s="34"/>
-      <c r="CD48" s="34"/>
+      <c r="CC48">
+        <v>-0.38057949226707533</v>
+      </c>
+      <c r="CD48">
+        <v>-0.28465892678001109</v>
+      </c>
+      <c r="CE48">
+        <v>1.6562394893345469E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -25790,7 +26295,7 @@
       </c>
       <c r="O49" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>19.935317220770148</v>
+        <v>16.837775939004516</v>
       </c>
       <c r="P49" s="15">
         <v>4</v>
@@ -25999,14 +26504,23 @@
       <c r="BZ49" s="18">
         <v>4</v>
       </c>
-      <c r="CA49" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB49" s="34"/>
-      <c r="CC49" s="34"/>
-      <c r="CD49" s="34"/>
+      <c r="CA49">
+        <v>5</v>
+      </c>
+      <c r="CB49" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC49">
+        <v>2.0167870981541092</v>
+      </c>
+      <c r="CD49">
+        <v>1.527094039172243</v>
+      </c>
+      <c r="CE49">
+        <v>4.4295305531790438E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -26051,7 +26565,7 @@
       </c>
       <c r="O50" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>42.501664791088388</v>
+        <v>37.647064746127597</v>
       </c>
       <c r="P50" s="15"/>
       <c r="Q50" s="15" t="s">
@@ -26258,14 +26772,23 @@
       <c r="BZ50" s="18">
         <v>5</v>
       </c>
-      <c r="CA50" s="34">
+      <c r="CA50">
+        <v>5</v>
+      </c>
+      <c r="CB50" s="34">
         <v>2</v>
       </c>
-      <c r="CB50" s="34"/>
-      <c r="CC50" s="34"/>
-      <c r="CD50" s="34"/>
+      <c r="CC50">
+        <v>2.400474926679931</v>
+      </c>
+      <c r="CD50">
+        <v>1.5243648927933711</v>
+      </c>
+      <c r="CE50">
+        <v>3.6525754350807058</v>
+      </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -26310,7 +26833,7 @@
       </c>
       <c r="O51" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>10.127926058631388</v>
+        <v>7.8839662106399633</v>
       </c>
       <c r="P51" s="15"/>
       <c r="Q51" s="15" t="s">
@@ -26517,14 +27040,23 @@
       <c r="BZ51" s="18">
         <v>2</v>
       </c>
-      <c r="CA51" s="34">
+      <c r="CA51">
+        <v>1</v>
+      </c>
+      <c r="CB51" s="34">
         <v>5</v>
       </c>
-      <c r="CB51" s="34"/>
-      <c r="CC51" s="34"/>
-      <c r="CD51" s="34"/>
+      <c r="CC51">
+        <v>0.54948196784431746</v>
+      </c>
+      <c r="CD51">
+        <v>-1.150111752934204</v>
+      </c>
+      <c r="CE51">
+        <v>-1.8306613021047931</v>
+      </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -26569,7 +27101,7 @@
       </c>
       <c r="O52" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>10.969901408299849</v>
+        <v>15.125153892698551</v>
       </c>
       <c r="P52" s="15"/>
       <c r="Q52" s="15" t="s">
@@ -26776,14 +27308,23 @@
       <c r="BZ52" s="18">
         <v>3</v>
       </c>
-      <c r="CA52" s="34">
+      <c r="CA52">
+        <v>4</v>
+      </c>
+      <c r="CB52" s="34">
         <v>3</v>
       </c>
-      <c r="CB52" s="34"/>
-      <c r="CC52" s="34"/>
-      <c r="CD52" s="34"/>
+      <c r="CC52">
+        <v>-1.477579802757568</v>
+      </c>
+      <c r="CD52">
+        <v>-0.72266238791158188</v>
+      </c>
+      <c r="CE52">
+        <v>0.69186690038511378</v>
+      </c>
     </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -26828,7 +27369,7 @@
       </c>
       <c r="O53" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>10.64785641320098</v>
+        <v>14.822000599910531</v>
       </c>
       <c r="P53" s="15">
         <v>5</v>
@@ -27037,14 +27578,23 @@
       <c r="BZ53" s="18">
         <v>3</v>
       </c>
-      <c r="CA53" s="34">
+      <c r="CA53">
+        <v>4</v>
+      </c>
+      <c r="CB53" s="34">
         <v>3</v>
       </c>
-      <c r="CB53" s="34"/>
-      <c r="CC53" s="34"/>
-      <c r="CD53" s="34"/>
+      <c r="CC53">
+        <v>-1.514593325239173</v>
+      </c>
+      <c r="CD53">
+        <v>-0.39599386457952168</v>
+      </c>
+      <c r="CE53">
+        <v>0.86062717840493097</v>
+      </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -27089,7 +27639,7 @@
       </c>
       <c r="O54" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.0593089440009553</v>
+        <v>5.1792199990203045</v>
       </c>
       <c r="P54" s="15"/>
       <c r="Q54" s="15" t="s">
@@ -27296,14 +27846,23 @@
       <c r="BZ54" s="18">
         <v>5</v>
       </c>
-      <c r="CA54" s="34">
+      <c r="CA54">
+        <v>4</v>
+      </c>
+      <c r="CB54" s="34">
         <v>2</v>
       </c>
-      <c r="CB54" s="34"/>
-      <c r="CC54" s="34"/>
-      <c r="CD54" s="34"/>
+      <c r="CC54">
+        <v>0.6896376552982395</v>
+      </c>
+      <c r="CD54">
+        <v>-2.783046236422082E-2</v>
+      </c>
+      <c r="CE54">
+        <v>1.8039720472001819</v>
+      </c>
     </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
@@ -27348,7 +27907,7 @@
       </c>
       <c r="O55" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.4280775580256098</v>
+        <v>1.2537708393269236</v>
       </c>
       <c r="P55" s="15">
         <v>1</v>
@@ -27557,14 +28116,23 @@
       <c r="BZ55" s="18">
         <v>2</v>
       </c>
-      <c r="CA55" s="34">
+      <c r="CA55">
+        <v>1</v>
+      </c>
+      <c r="CB55" s="34">
         <v>3</v>
       </c>
-      <c r="CB55" s="34"/>
-      <c r="CC55" s="34"/>
-      <c r="CD55" s="34"/>
+      <c r="CC55">
+        <v>0.16014978417610601</v>
+      </c>
+      <c r="CD55">
+        <v>-0.58830442639080027</v>
+      </c>
+      <c r="CE55">
+        <v>7.1540501191544271E-3</v>
+      </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -27609,7 +28177,7 @@
       </c>
       <c r="O56" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.128275417286944</v>
+        <v>1.1271359327954582</v>
       </c>
       <c r="P56" s="15">
         <v>1</v>
@@ -27818,14 +28386,23 @@
       <c r="BZ56" s="18">
         <v>2</v>
       </c>
-      <c r="CA56" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB56" s="34"/>
-      <c r="CC56" s="34"/>
-      <c r="CD56" s="34"/>
+      <c r="CA56">
+        <v>3</v>
+      </c>
+      <c r="CB56" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC56">
+        <v>0.48310197842183839</v>
+      </c>
+      <c r="CD56">
+        <v>-0.4208782317891635</v>
+      </c>
+      <c r="CE56">
+        <v>-0.224933874963233</v>
+      </c>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -27870,7 +28447,7 @@
       </c>
       <c r="O57" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.4928973101332255</v>
+        <v>5.3400953831758953</v>
       </c>
       <c r="P57" s="15"/>
       <c r="Q57" s="15" t="s">
@@ -28077,14 +28654,23 @@
       <c r="BZ57" s="18">
         <v>5</v>
       </c>
-      <c r="CA57" s="34">
+      <c r="CA57">
+        <v>4</v>
+      </c>
+      <c r="CB57" s="34">
         <v>2</v>
       </c>
-      <c r="CB57" s="34"/>
-      <c r="CC57" s="34"/>
-      <c r="CD57" s="34"/>
+      <c r="CC57">
+        <v>-0.1735485119229751</v>
+      </c>
+      <c r="CD57">
+        <v>0.66264664303684062</v>
+      </c>
+      <c r="CE57">
+        <v>0.87358977906768476</v>
+      </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -28129,7 +28715,7 @@
       </c>
       <c r="O58" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>7.9213657540405125</v>
+        <v>4.683601036984145</v>
       </c>
       <c r="P58" s="15"/>
       <c r="Q58" s="15" t="s">
@@ -28336,14 +28922,23 @@
       <c r="BZ58" s="18">
         <v>4</v>
       </c>
-      <c r="CA58" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB58" s="34"/>
-      <c r="CC58" s="34"/>
-      <c r="CD58" s="34"/>
+      <c r="CA58">
+        <v>3</v>
+      </c>
+      <c r="CB58" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC58">
+        <v>1.3483812731713309</v>
+      </c>
+      <c r="CD58">
+        <v>-0.27012496857370327</v>
+      </c>
+      <c r="CE58">
+        <v>-0.75826996047467199</v>
+      </c>
     </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -28388,7 +28983,7 @@
       </c>
       <c r="O59" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.1381792422386958</v>
+        <v>2.786426062879126</v>
       </c>
       <c r="P59" s="15"/>
       <c r="Q59" s="15" t="s">
@@ -28595,14 +29190,23 @@
       <c r="BZ59" s="18">
         <v>4</v>
       </c>
-      <c r="CA59" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB59" s="34"/>
-      <c r="CC59" s="34"/>
-      <c r="CD59" s="34"/>
+      <c r="CA59">
+        <v>3</v>
+      </c>
+      <c r="CB59" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC59">
+        <v>0.48446775642530132</v>
+      </c>
+      <c r="CD59">
+        <v>0.42536730309958048</v>
+      </c>
+      <c r="CE59">
+        <v>-0.65809404482756972</v>
+      </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -28647,7 +29251,7 @@
       </c>
       <c r="O60" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>15.940368580875958</v>
+        <v>17.949194584505808</v>
       </c>
       <c r="P60" s="15"/>
       <c r="Q60" s="15" t="s">
@@ -28854,14 +29458,23 @@
       <c r="BZ60" s="18">
         <v>3</v>
       </c>
-      <c r="CA60" s="34">
+      <c r="CA60">
+        <v>1</v>
+      </c>
+      <c r="CB60" s="34">
         <v>3</v>
       </c>
-      <c r="CB60" s="34"/>
-      <c r="CC60" s="34"/>
-      <c r="CD60" s="34"/>
+      <c r="CC60">
+        <v>-1.0004446837794589</v>
+      </c>
+      <c r="CD60">
+        <v>-0.95097027793418609</v>
+      </c>
+      <c r="CE60">
+        <v>0.20443263146690169</v>
+      </c>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -28906,7 +29519,7 @@
       </c>
       <c r="O61" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.0179610606263636</v>
+        <v>3.7940265349669087</v>
       </c>
       <c r="P61" s="15"/>
       <c r="Q61" s="15" t="s">
@@ -29113,14 +29726,23 @@
       <c r="BZ61" s="18">
         <v>3</v>
       </c>
-      <c r="CA61" s="34">
+      <c r="CA61">
+        <v>1</v>
+      </c>
+      <c r="CB61" s="34">
         <v>3</v>
       </c>
-      <c r="CB61" s="34"/>
-      <c r="CC61" s="34"/>
-      <c r="CD61" s="34"/>
+      <c r="CC61">
+        <v>-5.2605709921261019E-2</v>
+      </c>
+      <c r="CD61">
+        <v>-0.37935552949604168</v>
+      </c>
+      <c r="CE61">
+        <v>0.29789354849560312</v>
+      </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -29165,7 +29787,7 @@
       </c>
       <c r="O62" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.8618885506375511</v>
+        <v>3.6950649618697429</v>
       </c>
       <c r="P62" s="15">
         <v>4</v>
@@ -29374,14 +29996,23 @@
       <c r="BZ62" s="18">
         <v>4</v>
       </c>
-      <c r="CA62" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB62" s="34"/>
-      <c r="CC62" s="34"/>
-      <c r="CD62" s="34"/>
+      <c r="CA62">
+        <v>3</v>
+      </c>
+      <c r="CB62" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC62">
+        <v>0.98617203227904815</v>
+      </c>
+      <c r="CD62">
+        <v>0.45076229300913262</v>
+      </c>
+      <c r="CE62">
+        <v>-0.37325843331383929</v>
+      </c>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -29426,7 +30057,7 @@
       </c>
       <c r="O63" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.0798846808109785</v>
+        <v>1.4362922752415048</v>
       </c>
       <c r="P63" s="15"/>
       <c r="Q63" s="15" t="s">
@@ -29633,14 +30264,23 @@
       <c r="BZ63" s="18">
         <v>2</v>
       </c>
-      <c r="CA63" s="34">
+      <c r="CA63">
+        <v>1</v>
+      </c>
+      <c r="CB63" s="34">
         <v>3</v>
       </c>
-      <c r="CB63" s="34"/>
-      <c r="CC63" s="34"/>
-      <c r="CD63" s="34"/>
+      <c r="CC63">
+        <v>0.27493403223783741</v>
+      </c>
+      <c r="CD63">
+        <v>-0.68834654143136931</v>
+      </c>
+      <c r="CE63">
+        <v>-0.24122058904749971</v>
+      </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -29685,7 +30325,7 @@
       </c>
       <c r="O64" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.0923711650137586</v>
+        <v>1.0982488671781423</v>
       </c>
       <c r="P64" s="15">
         <v>1</v>
@@ -29894,14 +30534,23 @@
       <c r="BZ64" s="18">
         <v>2</v>
       </c>
-      <c r="CA64" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB64" s="34"/>
-      <c r="CC64" s="34"/>
-      <c r="CD64" s="34"/>
+      <c r="CA64">
+        <v>3</v>
+      </c>
+      <c r="CB64" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC64">
+        <v>0.64086387038425896</v>
+      </c>
+      <c r="CD64">
+        <v>4.7587805609768788E-2</v>
+      </c>
+      <c r="CE64">
+        <v>3.9368803926643041E-2</v>
+      </c>
     </row>
-    <row r="65" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -29946,7 +30595,7 @@
       </c>
       <c r="O65" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>19.177326088168495</v>
+        <v>17.054434785676925</v>
       </c>
       <c r="P65" s="15"/>
       <c r="Q65" s="15" t="s">
@@ -30153,14 +30802,23 @@
       <c r="BZ65" s="18">
         <v>4</v>
       </c>
-      <c r="CA65" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB65" s="34"/>
-      <c r="CC65" s="34"/>
-      <c r="CD65" s="34"/>
+      <c r="CA65">
+        <v>5</v>
+      </c>
+      <c r="CB65" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC65">
+        <v>1.2900430873677731</v>
+      </c>
+      <c r="CD65">
+        <v>1.367003134243526</v>
+      </c>
+      <c r="CE65">
+        <v>-0.36360792356460941</v>
+      </c>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -30205,7 +30863,7 @@
       </c>
       <c r="O66" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.1489525934349305</v>
+        <v>1.2473682611934389</v>
       </c>
       <c r="P66" s="15"/>
       <c r="Q66" s="15" t="s">
@@ -30412,14 +31070,23 @@
       <c r="BZ66" s="18">
         <v>2</v>
       </c>
-      <c r="CA66" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB66" s="34"/>
-      <c r="CC66" s="34"/>
-      <c r="CD66" s="34"/>
+      <c r="CA66">
+        <v>3</v>
+      </c>
+      <c r="CB66" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC66">
+        <v>0.74431438233643743</v>
+      </c>
+      <c r="CD66">
+        <v>-0.46856068055495331</v>
+      </c>
+      <c r="CE66">
+        <v>0.34291636846450541</v>
+      </c>
     </row>
-    <row r="67" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -30464,7 +31131,7 @@
       </c>
       <c r="O67" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>15.672803117354693</v>
+        <v>20.634844453497774</v>
       </c>
       <c r="P67" s="15"/>
       <c r="Q67" s="15" t="s">
@@ -30671,14 +31338,23 @@
       <c r="BZ67" s="18">
         <v>5</v>
       </c>
-      <c r="CA67" s="34">
+      <c r="CA67">
+        <v>4</v>
+      </c>
+      <c r="CB67" s="34">
         <v>2</v>
       </c>
-      <c r="CB67" s="34"/>
-      <c r="CC67" s="34"/>
-      <c r="CD67" s="34"/>
+      <c r="CC67">
+        <v>-1.289323115483747</v>
+      </c>
+      <c r="CD67">
+        <v>0.2496069304175883</v>
+      </c>
+      <c r="CE67">
+        <v>2.0374874006502091</v>
+      </c>
     </row>
-    <row r="68" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
@@ -30723,7 +31399,7 @@
       </c>
       <c r="O68" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.7417740364451202</v>
+        <v>2.715653324299466</v>
       </c>
       <c r="P68" s="15"/>
       <c r="Q68" s="15" t="s">
@@ -30930,14 +31606,23 @@
       <c r="BZ68" s="18">
         <v>2</v>
       </c>
-      <c r="CA68" s="34">
+      <c r="CA68">
         <v>3</v>
       </c>
-      <c r="CB68" s="34"/>
-      <c r="CC68" s="34"/>
-      <c r="CD68" s="34"/>
+      <c r="CB68" s="34">
+        <v>3</v>
+      </c>
+      <c r="CC68">
+        <v>0.16961161272572359</v>
+      </c>
+      <c r="CD68">
+        <v>0.45412868493104508</v>
+      </c>
+      <c r="CE68">
+        <v>-1.506703075283296E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
@@ -30982,7 +31667,7 @@
       </c>
       <c r="O69" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>8.1283677557440548</v>
+        <v>6.2720003754838132</v>
       </c>
       <c r="P69" s="15"/>
       <c r="Q69" s="15" t="s">
@@ -31189,14 +31874,23 @@
       <c r="BZ69" s="18">
         <v>4</v>
       </c>
-      <c r="CA69" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB69" s="34"/>
-      <c r="CC69" s="34"/>
-      <c r="CD69" s="34"/>
+      <c r="CA69">
+        <v>3</v>
+      </c>
+      <c r="CB69" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC69">
+        <v>1.0058695425786091</v>
+      </c>
+      <c r="CD69">
+        <v>0.28394978215717848</v>
+      </c>
+      <c r="CE69">
+        <v>-0.1004230565450966</v>
+      </c>
     </row>
-    <row r="70" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -31241,7 +31935,7 @@
       </c>
       <c r="O70" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.5881752244898477</v>
+        <v>4.960086496738989</v>
       </c>
       <c r="P70" s="15">
         <v>3</v>
@@ -31450,14 +32144,23 @@
       <c r="BZ70" s="18">
         <v>2</v>
       </c>
-      <c r="CA70" s="34">
+      <c r="CA70">
+        <v>1</v>
+      </c>
+      <c r="CB70" s="34">
         <v>3</v>
       </c>
-      <c r="CB70" s="34"/>
-      <c r="CC70" s="34"/>
-      <c r="CD70" s="34"/>
+      <c r="CC70">
+        <v>-0.33647682248582689</v>
+      </c>
+      <c r="CD70">
+        <v>-0.75536894853489056</v>
+      </c>
+      <c r="CE70">
+        <v>-0.25948450091003222</v>
+      </c>
     </row>
-    <row r="71" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
@@ -31502,7 +32205,7 @@
       </c>
       <c r="O71" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>9.5205337454338803</v>
+        <v>7.4888648522333465</v>
       </c>
       <c r="P71" s="15"/>
       <c r="Q71" s="15" t="s">
@@ -31709,14 +32412,23 @@
       <c r="BZ71" s="18">
         <v>4</v>
       </c>
-      <c r="CA71" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB71" s="34"/>
-      <c r="CC71" s="34"/>
-      <c r="CD71" s="34"/>
+      <c r="CA71">
+        <v>3</v>
+      </c>
+      <c r="CB71" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC71">
+        <v>1.232417407198575</v>
+      </c>
+      <c r="CD71">
+        <v>0.33514839000700969</v>
+      </c>
+      <c r="CE71">
+        <v>-1.339665313277528</v>
+      </c>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
@@ -31761,7 +32473,7 @@
       </c>
       <c r="O72" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>12.759749014360002</v>
+        <v>12.801405034485477</v>
       </c>
       <c r="P72" s="15"/>
       <c r="Q72" s="15" t="s">
@@ -31968,14 +32680,23 @@
       <c r="BZ72" s="18">
         <v>2</v>
       </c>
-      <c r="CA72" s="34">
+      <c r="CA72">
+        <v>1</v>
+      </c>
+      <c r="CB72" s="34">
         <v>5</v>
       </c>
-      <c r="CB72" s="34"/>
-      <c r="CC72" s="34"/>
-      <c r="CD72" s="34"/>
+      <c r="CC72">
+        <v>3.5346049739769327E-2</v>
+      </c>
+      <c r="CD72">
+        <v>-1.014392231221714</v>
+      </c>
+      <c r="CE72">
+        <v>-0.79590443150407275</v>
+      </c>
     </row>
-    <row r="73" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
@@ -32020,7 +32741,7 @@
       </c>
       <c r="O73" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.9765761239321273</v>
+        <v>8.0110599710062562</v>
       </c>
       <c r="P73" s="15"/>
       <c r="Q73" s="15" t="s">
@@ -32227,14 +32948,23 @@
       <c r="BZ73" s="18">
         <v>2</v>
       </c>
-      <c r="CA73" s="34">
+      <c r="CA73">
+        <v>1</v>
+      </c>
+      <c r="CB73" s="34">
         <v>5</v>
       </c>
-      <c r="CB73" s="34"/>
-      <c r="CC73" s="34"/>
-      <c r="CD73" s="34"/>
+      <c r="CC73">
+        <v>-0.62846576545829536</v>
+      </c>
+      <c r="CD73">
+        <v>-0.98018553618716364</v>
+      </c>
+      <c r="CE73">
+        <v>-0.31044232734965183</v>
+      </c>
     </row>
-    <row r="74" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
@@ -32279,7 +33009,7 @@
       </c>
       <c r="O74" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>15.773996885338644</v>
+        <v>14.386970373133069</v>
       </c>
       <c r="P74" s="15"/>
       <c r="Q74" s="15" t="s">
@@ -32486,14 +33216,23 @@
       <c r="BZ74" s="18">
         <v>4</v>
       </c>
-      <c r="CA74" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB74" s="34"/>
-      <c r="CC74" s="34"/>
-      <c r="CD74" s="34"/>
+      <c r="CA74">
+        <v>3</v>
+      </c>
+      <c r="CB74" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC74">
+        <v>0.80174717785003125</v>
+      </c>
+      <c r="CD74">
+        <v>0.78746018521439909</v>
+      </c>
+      <c r="CE74">
+        <v>-1.030215603450487</v>
+      </c>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -32538,7 +33277,7 @@
       </c>
       <c r="O75" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.8641824298753433</v>
+        <v>3.8835711410570117</v>
       </c>
       <c r="P75" s="15"/>
       <c r="Q75" s="15" t="s">
@@ -32745,14 +33484,23 @@
       <c r="BZ75" s="18">
         <v>2</v>
       </c>
-      <c r="CA75" s="34">
+      <c r="CA75">
+        <v>3</v>
+      </c>
+      <c r="CB75" s="34">
         <v>5</v>
       </c>
-      <c r="CB75" s="34"/>
-      <c r="CC75" s="34"/>
-      <c r="CD75" s="34"/>
+      <c r="CC75">
+        <v>0.27283018860111791</v>
+      </c>
+      <c r="CD75">
+        <v>-0.30328306412430872</v>
+      </c>
+      <c r="CE75">
+        <v>-0.64974698816090892</v>
+      </c>
     </row>
-    <row r="76" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -32797,7 +33545,7 @@
       </c>
       <c r="O76" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>11.745590811997223</v>
+        <v>12.032110473263854</v>
       </c>
       <c r="P76" s="15"/>
       <c r="Q76" s="15" t="s">
@@ -33004,14 +33752,23 @@
       <c r="BZ76" s="18">
         <v>2</v>
       </c>
-      <c r="CA76" s="34">
+      <c r="CA76">
+        <v>1</v>
+      </c>
+      <c r="CB76" s="34">
         <v>5</v>
       </c>
-      <c r="CB76" s="34"/>
-      <c r="CC76" s="34"/>
-      <c r="CD76" s="34"/>
+      <c r="CC76">
+        <v>-0.27668529194838137</v>
+      </c>
+      <c r="CD76">
+        <v>-1.183086109254635</v>
+      </c>
+      <c r="CE76">
+        <v>-2.2879342854433662</v>
+      </c>
     </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -33056,7 +33813,7 @@
       </c>
       <c r="O77" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.5278873215998674</v>
+        <v>3.090187681112377</v>
       </c>
       <c r="P77" s="15"/>
       <c r="Q77" s="15" t="s">
@@ -33263,14 +34020,23 @@
       <c r="BZ77" s="18">
         <v>3</v>
       </c>
-      <c r="CA77" s="34">
+      <c r="CA77">
+        <v>4</v>
+      </c>
+      <c r="CB77" s="34">
         <v>3</v>
       </c>
-      <c r="CB77" s="34"/>
-      <c r="CC77" s="34"/>
-      <c r="CD77" s="34"/>
+      <c r="CC77">
+        <v>-0.1260130227129341</v>
+      </c>
+      <c r="CD77">
+        <v>-0.28726497996048161</v>
+      </c>
+      <c r="CE77">
+        <v>0.64871550602703154</v>
+      </c>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -33315,7 +34081,7 @@
       </c>
       <c r="O78" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.7469602789198322</v>
+        <v>0.87417463886753366</v>
       </c>
       <c r="P78" s="15">
         <v>1</v>
@@ -33524,14 +34290,23 @@
       <c r="BZ78" s="18">
         <v>2</v>
       </c>
-      <c r="CA78" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB78" s="34"/>
-      <c r="CC78" s="34"/>
-      <c r="CD78" s="34"/>
+      <c r="CA78">
+        <v>3</v>
+      </c>
+      <c r="CB78" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC78">
+        <v>0.55615160855740009</v>
+      </c>
+      <c r="CD78">
+        <v>-0.17377451721579609</v>
+      </c>
+      <c r="CE78">
+        <v>0.14355587300377759</v>
+      </c>
     </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -33576,7 +34351,7 @@
       </c>
       <c r="O79" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.0081067878444201</v>
+        <v>4.9747913364377876</v>
       </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15" t="s">
@@ -33783,14 +34558,23 @@
       <c r="BZ79" s="18">
         <v>2</v>
       </c>
-      <c r="CA79" s="34">
+      <c r="CA79">
+        <v>1</v>
+      </c>
+      <c r="CB79" s="34">
         <v>5</v>
       </c>
-      <c r="CB79" s="34"/>
-      <c r="CC79" s="34"/>
-      <c r="CD79" s="34"/>
+      <c r="CC79">
+        <v>-0.47604844058086287</v>
+      </c>
+      <c r="CD79">
+        <v>-2.1977583015298022E-2</v>
+      </c>
+      <c r="CE79">
+        <v>-0.72617903500345693</v>
+      </c>
     </row>
-    <row r="80" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -33835,7 +34619,7 @@
       </c>
       <c r="O80" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>14.144836888784321</v>
+        <v>16.916641031096493</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15" t="s">
@@ -34042,14 +34826,23 @@
       <c r="BZ80" s="18">
         <v>4</v>
       </c>
-      <c r="CA80" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB80" s="34"/>
-      <c r="CC80" s="34"/>
-      <c r="CD80" s="34"/>
+      <c r="CA80">
+        <v>3</v>
+      </c>
+      <c r="CB80" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC80">
+        <v>-6.2872015604912221E-2</v>
+      </c>
+      <c r="CD80">
+        <v>1.596274973291627</v>
+      </c>
+      <c r="CE80">
+        <v>-1.8508046534521401</v>
+      </c>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -34094,7 +34887,7 @@
       </c>
       <c r="O81" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.0193020991836885</v>
+        <v>1.0794426894463078</v>
       </c>
       <c r="P81" s="15">
         <v>1</v>
@@ -34303,14 +35096,23 @@
       <c r="BZ81" s="18">
         <v>2</v>
       </c>
-      <c r="CA81" s="34">
+      <c r="CA81">
+        <v>1</v>
+      </c>
+      <c r="CB81" s="34">
         <v>3</v>
       </c>
-      <c r="CB81" s="34"/>
-      <c r="CC81" s="34"/>
-      <c r="CD81" s="34"/>
+      <c r="CC81">
+        <v>0.1051868045392111</v>
+      </c>
+      <c r="CD81">
+        <v>-0.42508506466550722</v>
+      </c>
+      <c r="CE81">
+        <v>5.395740122459052E-3</v>
+      </c>
     </row>
-    <row r="82" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -34355,7 +35157,7 @@
       </c>
       <c r="O82" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>26.804785628859786</v>
+        <v>23.043411167975965</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15" t="s">
@@ -34562,14 +35364,23 @@
       <c r="BZ82" s="18">
         <v>4</v>
       </c>
-      <c r="CA82" s="34">
-        <v>1</v>
-      </c>
-      <c r="CB82" s="34"/>
-      <c r="CC82" s="34"/>
-      <c r="CD82" s="34"/>
+      <c r="CA82">
+        <v>5</v>
+      </c>
+      <c r="CB82" s="34">
+        <v>1</v>
+      </c>
+      <c r="CC82">
+        <v>2.3595296237255892</v>
+      </c>
+      <c r="CD82">
+        <v>1.888200838515697</v>
+      </c>
+      <c r="CE82">
+        <v>0.58074947870799043</v>
+      </c>
     </row>
-    <row r="83" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -34614,7 +35425,7 @@
       </c>
       <c r="O83" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.9595133997503522</v>
+        <v>5.2539405732034643</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15" t="s">
@@ -34821,14 +35632,23 @@
       <c r="BZ83" s="18">
         <v>2</v>
       </c>
-      <c r="CA83" s="34">
+      <c r="CA83">
+        <v>1</v>
+      </c>
+      <c r="CB83" s="34">
         <v>3</v>
       </c>
-      <c r="CB83" s="34"/>
-      <c r="CC83" s="34"/>
-      <c r="CD83" s="34"/>
+      <c r="CC83">
+        <v>1.9663679379860091E-2</v>
+      </c>
+      <c r="CD83">
+        <v>-0.71448847465354492</v>
+      </c>
+      <c r="CE83">
+        <v>-0.23258707607166709</v>
+      </c>
     </row>
-    <row r="84" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -34873,7 +35693,7 @@
       </c>
       <c r="O84" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>59.563694763421765</v>
+        <v>72.402871649933957</v>
       </c>
       <c r="P84" s="15">
         <v>2</v>
@@ -35082,14 +35902,23 @@
       <c r="BZ84" s="18">
         <v>1</v>
       </c>
-      <c r="CA84" s="34">
+      <c r="CA84">
+        <v>2</v>
+      </c>
+      <c r="CB84" s="34">
         <v>4</v>
       </c>
-      <c r="CB84" s="34"/>
-      <c r="CC84" s="34"/>
-      <c r="CD84" s="34"/>
+      <c r="CC84">
+        <v>-3.2953468411790179</v>
+      </c>
+      <c r="CD84">
+        <v>3.4077314515059491</v>
+      </c>
+      <c r="CE84">
+        <v>0.88526217585575562</v>
+      </c>
     </row>
-    <row r="85" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -35134,7 +35963,7 @@
       </c>
       <c r="O85" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>35.014671615955351</v>
+        <v>43.688995867442202</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15" t="s">
@@ -35341,14 +36170,23 @@
       <c r="BZ85" s="18">
         <v>1</v>
       </c>
-      <c r="CA85" s="34">
+      <c r="CA85">
+        <v>2</v>
+      </c>
+      <c r="CB85" s="34">
         <v>4</v>
       </c>
-      <c r="CB85" s="34"/>
-      <c r="CC85" s="34"/>
-      <c r="CD85" s="34"/>
+      <c r="CC85">
+        <v>-1.6420537453626121</v>
+      </c>
+      <c r="CD85">
+        <v>3.3899464440500169</v>
+      </c>
+      <c r="CE85">
+        <v>-1.4659395255715171</v>
+      </c>
     </row>
-    <row r="86" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:83" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -35393,7 +36231,7 @@
       </c>
       <c r="O86" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.611112720783995</v>
+        <v>3.4236379374827894</v>
       </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15" t="s">
@@ -35600,107 +36438,116 @@
       <c r="BZ86" s="18">
         <v>2</v>
       </c>
-      <c r="CA86" s="34">
+      <c r="CA86">
+        <v>1</v>
+      </c>
+      <c r="CB86" s="34">
         <v>5</v>
       </c>
-      <c r="CB86" s="34"/>
-      <c r="CC86" s="34"/>
-      <c r="CD86" s="34"/>
+      <c r="CC86">
+        <v>-8.7931524542688808E-2</v>
+      </c>
+      <c r="CD86">
+        <v>-0.28954161212102958</v>
+      </c>
+      <c r="CE86">
+        <v>-0.57814847061734098</v>
+      </c>
     </row>
-    <row r="87" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37">
+    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A87" s="35"/>
+      <c r="B87" s="36">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Ward])</f>
-        <v>85</v>
-      </c>
-      <c r="C87" s="37">
+        <v>12</v>
+      </c>
+      <c r="C87" s="36">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Complete])</f>
-        <v>85</v>
-      </c>
-      <c r="D87" s="37">
+        <v>12</v>
+      </c>
+      <c r="D87" s="36">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Single])</f>
-        <v>85</v>
-      </c>
-      <c r="E87" s="37">
+        <v>12</v>
+      </c>
+      <c r="E87" s="36">
         <f>SUBTOTAL(103,Таблица2[CLUSTER K-means])</f>
-        <v>85</v>
-      </c>
-      <c r="F87" s="37">
+        <v>12</v>
+      </c>
+      <c r="F87" s="36">
         <f>SUBTOTAL(101,Таблица2[X1])</f>
-        <v>1.0094124294593933E-10</v>
-      </c>
-      <c r="G87" s="37">
+        <v>0.13975734493333333</v>
+      </c>
+      <c r="G87" s="36">
         <f>SUBTOTAL(101,Таблица2[X2])</f>
-        <v>2.4247058478679529E-10</v>
-      </c>
-      <c r="H87" s="37">
+        <v>-0.31397713862416671</v>
+      </c>
+      <c r="H87" s="36">
         <f>SUBTOTAL(101,Таблица2[X3])</f>
-        <v>4.5882309716288918E-11</v>
-      </c>
-      <c r="I87" s="37">
+        <v>-0.33156507040833333</v>
+      </c>
+      <c r="I87" s="36">
         <f>SUBTOTAL(101,Таблица2[X4])</f>
-        <v>-4.705855313268196E-12</v>
-      </c>
-      <c r="J87" s="37">
+        <v>8.3022602216666713E-2</v>
+      </c>
+      <c r="J87" s="36">
         <f>SUBTOTAL(101,Таблица2[X5])</f>
-        <v>-9.6447066672980368E-11</v>
-      </c>
-      <c r="K87" s="37">
+        <v>-0.15977336725833335</v>
+      </c>
+      <c r="K87" s="36">
         <f>SUBTOTAL(101,Таблица2[X6])</f>
-        <v>-1.4117680227468888E-11</v>
-      </c>
-      <c r="L87" s="37">
+        <v>-0.31143981366666668</v>
+      </c>
+      <c r="L87" s="36">
         <f>SUBTOTAL(101,Таблица2[X7])</f>
-        <v>3.1058820874651407E-11</v>
-      </c>
-      <c r="M87" s="37">
+        <v>-0.23571058883333337</v>
+      </c>
+      <c r="M87" s="36">
         <f>SUBTOTAL(101,Таблица2[X8])</f>
-        <v>4.2470602525020409E-11</v>
-      </c>
-      <c r="N87" s="37">
+        <v>-0.49332853469999999</v>
+      </c>
+      <c r="N87" s="36">
         <f>SUBTOTAL(101,Таблица2[X9])</f>
-        <v>-1.4117669125238643E-11</v>
-      </c>
-      <c r="O87" s="37">
+        <v>0.36439676698333329</v>
+      </c>
+      <c r="O87" s="36">
         <f>SUBTOTAL(109,Таблица2[Расстояние])</f>
-        <v>755.99999992232358</v>
-      </c>
-      <c r="P87" s="38">
+        <v>71.490017747335386</v>
+      </c>
+      <c r="P87" s="37">
         <f>SUBTOTAL(103,Таблица2[обучающая выборка])</f>
-        <v>30</v>
-      </c>
-      <c r="Q87" s="39">
+        <v>4</v>
+      </c>
+      <c r="Q87" s="38">
         <f>30/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>1</v>
-      </c>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="39">
+        <v>7.5</v>
+      </c>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="38">
         <f>Таблица2[[#Totals],[Точность Махал]]/Таблица2[[#Totals],[обучающая выборка]]</f>
         <v>1</v>
       </c>
-      <c r="Z87" s="37">
+      <c r="Z87" s="36">
         <f>SUBTOTAL(109,Таблица2[Точность Махал])</f>
-        <v>30</v>
-      </c>
-      <c r="AA87" s="37"/>
-      <c r="AB87" s="37"/>
-      <c r="AC87" s="37"/>
-      <c r="AD87" s="37"/>
-      <c r="AE87" s="37"/>
-      <c r="AF87" s="37"/>
-      <c r="AH87" s="39">
+        <v>4</v>
+      </c>
+      <c r="AA87" s="36"/>
+      <c r="AB87" s="36"/>
+      <c r="AC87" s="36"/>
+      <c r="AD87" s="36"/>
+      <c r="AE87" s="36"/>
+      <c r="AF87" s="36"/>
+      <c r="AH87" s="38">
         <f>Таблица2[[#Totals],[Точность Априор]]/Таблица2[[#Totals],[обучающая выборка]]</f>
         <v>1</v>
       </c>
       <c r="AI87">
         <f>SUBTOTAL(109,Таблица2[Точность Априор])</f>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AJ87" s="21">
         <f>28/30</f>
@@ -35708,19 +36555,19 @@
       </c>
       <c r="AR87" s="21">
         <f>Таблица2[[#Totals],[Махал точность ВКЛ]]/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
       <c r="AS87">
         <f>SUBTOTAL(109,Таблица2[Махал точность ВКЛ])</f>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="BA87" s="21">
         <f>Таблица2[[#Totals],[Точность априор вкл]]/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BB87">
         <f>SUBTOTAL(109,Таблица2[Точность априор вкл])</f>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="BC87" s="21">
         <f>28/30</f>
@@ -35728,26 +36575,26 @@
       </c>
       <c r="BK87" s="21">
         <f>Таблица2[[#Totals],[МАХАЛ ИСК точность]]/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
       <c r="BL87">
         <f>SUBTOTAL(109,Таблица2[МАХАЛ ИСК точность])</f>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="BT87" s="21">
         <f>Таблица2[[#Totals],[АприорИскТочность]]/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BU87">
         <f>SUBTOTAL(109,Таблица2[АприорИскТочность])</f>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="BY87">
         <f>SUBTOTAL(103,Таблица2[Ward  МГК])</f>
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
       <c r="AI91">
         <v>1</v>
       </c>
@@ -38537,10 +39384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38555,9 +39402,11 @@
     <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>94</v>
       </c>
@@ -38594,8 +39443,14 @@
       <c r="L1" s="5" t="s">
         <v>208</v>
       </c>
+      <c r="M1" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -38632,8 +39487,14 @@
       <c r="L2">
         <v>43.036449393995454</v>
       </c>
+      <c r="M2">
+        <v>134.96863208369169</v>
+      </c>
+      <c r="N2">
+        <v>121.03926172778148</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -38670,8 +39531,14 @@
       <c r="L3">
         <v>117.84290053437412</v>
       </c>
+      <c r="M3">
+        <v>72.815538386633705</v>
+      </c>
+      <c r="N3">
+        <v>32.98032262645291</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -38708,8 +39575,14 @@
       <c r="L4">
         <v>83.112072724474842</v>
       </c>
+      <c r="M4">
+        <v>124.91318265040553</v>
+      </c>
+      <c r="N4">
+        <v>80.511832010783422</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -38746,8 +39619,14 @@
       <c r="L5">
         <v>108.90247341667458</v>
       </c>
+      <c r="M5">
+        <v>43.036449393995454</v>
+      </c>
+      <c r="N5">
+        <v>96.425323155046769</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -38784,8 +39663,14 @@
       <c r="L6">
         <v>64.824598663450189</v>
       </c>
+      <c r="M6">
+        <v>53.42985610761373</v>
+      </c>
+      <c r="N6">
+        <v>73.14360054312823</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -38796,7 +39681,7 @@
         <v>96.163392548052414</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -38807,7 +39692,7 @@
         <v>90.405260257787234</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -38852,12 +39737,21 @@
         <v>693.29573220723387</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(L2:L8)</f>
         <v>417.71849473296913</v>
+      </c>
+      <c r="M9" s="6">
+        <f>SUM(M2:M8)</f>
+        <v>429.16365862234005</v>
+      </c>
+      <c r="N9" s="6">
+        <f>SUM(N2:N8)</f>
+        <v>404.10034006319279</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
